--- a/data/mag/tax_nonAZ_own.xlsx
+++ b/data/mag/tax_nonAZ_own.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/data/mag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95EA755-69D2-7642-8AF9-9633EF89A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A3EFE4C7-0281-4846-8E85-DE92C94170CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="2300" windowWidth="19880" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="tax_nonAZ_own" sheetId="1" r:id="rId1"/>
-    <sheet name="tenure" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>geoid</t>
   </si>
@@ -162,12 +175,67 @@
   </si>
   <si>
     <t>Queen Creek</t>
+  </si>
+  <si>
+    <t>0400129</t>
+  </si>
+  <si>
+    <t>0400125</t>
+  </si>
+  <si>
+    <t>0400116</t>
+  </si>
+  <si>
+    <t>0400122</t>
+  </si>
+  <si>
+    <t>0400117</t>
+  </si>
+  <si>
+    <t>0400113</t>
+  </si>
+  <si>
+    <t>0400114</t>
+  </si>
+  <si>
+    <t>0400118</t>
+  </si>
+  <si>
+    <t>0400115</t>
+  </si>
+  <si>
+    <t>0400123</t>
+  </si>
+  <si>
+    <t>0400119</t>
+  </si>
+  <si>
+    <t>0400128</t>
+  </si>
+  <si>
+    <t>0400121</t>
+  </si>
+  <si>
+    <t>0400120</t>
+  </si>
+  <si>
+    <t>0400112</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Tucson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -631,8 +699,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -676,57 +745,60 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,13 +1110,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400100</v>
       </c>
@@ -1095,11 +1169,16 @@
       <c r="G2">
         <v>4876</v>
       </c>
-      <c r="H2">
-        <v>4601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <f>AVERAGE(E2:G2)</f>
+        <v>4600.666666666667</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.IFNA(H2/(VLOOKUP(TEXT(A2,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>400101</v>
       </c>
@@ -1121,11 +1200,16 @@
       <c r="G3">
         <v>10715</v>
       </c>
-      <c r="H3">
-        <v>10549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H39" si="0">AVERAGE(E3:G3)</f>
+        <v>10548.666666666666</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.IFNA(H3/(VLOOKUP(TEXT(A3,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>400102</v>
       </c>
@@ -1147,11 +1231,16 @@
       <c r="G4">
         <v>4577</v>
       </c>
-      <c r="H4">
-        <v>4625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>4625.333333333333</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.IFNA(H4/(VLOOKUP(TEXT(A4,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>400103</v>
       </c>
@@ -1173,11 +1262,16 @@
       <c r="G5">
         <v>3249</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>3434</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f>_xlfn.IFNA(H5/(VLOOKUP(TEXT(A5,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400104</v>
       </c>
@@ -1199,11 +1293,16 @@
       <c r="G6">
         <v>5642</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
         <v>5646</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f>_xlfn.IFNA(H6/(VLOOKUP(TEXT(A6,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>400105</v>
       </c>
@@ -1225,11 +1324,16 @@
       <c r="G7">
         <v>4005</v>
       </c>
-      <c r="H7">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>3885.6666666666665</v>
+      </c>
+      <c r="I7" t="str">
+        <f>_xlfn.IFNA(H7/(VLOOKUP(TEXT(A7,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>400106</v>
       </c>
@@ -1251,11 +1355,16 @@
       <c r="G8">
         <v>3585</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>3206</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f>_xlfn.IFNA(H8/(VLOOKUP(TEXT(A8,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>400107</v>
       </c>
@@ -1277,11 +1386,16 @@
       <c r="G9">
         <v>5040</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
         <v>4993</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f>_xlfn.IFNA(H9/(VLOOKUP(TEXT(A9,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>400108</v>
       </c>
@@ -1303,11 +1417,16 @@
       <c r="G10">
         <v>2388</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>2240</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f>_xlfn.IFNA(H10/(VLOOKUP(TEXT(A10,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>400109</v>
       </c>
@@ -1329,11 +1448,16 @@
       <c r="G11">
         <v>3329</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
         <v>3190</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="str">
+        <f>_xlfn.IFNA(H11/(VLOOKUP(TEXT(A11,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>400110</v>
       </c>
@@ -1355,11 +1479,16 @@
       <c r="G12">
         <v>10843</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
         <v>10661</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f>_xlfn.IFNA(H12/(VLOOKUP(TEXT(A12,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>400111</v>
       </c>
@@ -1381,11 +1510,16 @@
       <c r="G13">
         <v>11793</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
         <v>11720</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f>_xlfn.IFNA(H13/(VLOOKUP(TEXT(A13,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>400112</v>
       </c>
@@ -1407,11 +1541,20 @@
       <c r="G14">
         <v>10694</v>
       </c>
-      <c r="H14">
-        <v>10694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>10693.666666666666</v>
+      </c>
+      <c r="I14" s="3">
+        <f>_xlfn.IFNA(H14/(VLOOKUP(TEXT(A14,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>232.27408646292633</v>
+      </c>
+      <c r="J14" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A14,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>58257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>400113</v>
       </c>
@@ -1433,11 +1576,20 @@
       <c r="G15">
         <v>4358</v>
       </c>
-      <c r="H15">
-        <v>4172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>4172.333333333333</v>
+      </c>
+      <c r="I15" s="3">
+        <f>_xlfn.IFNA(H15/(VLOOKUP(TEXT(A15,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>136.65443905847417</v>
+      </c>
+      <c r="J15" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A15,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>400114</v>
       </c>
@@ -1459,11 +1611,20 @@
       <c r="G16">
         <v>3237</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
         <v>3123</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="3">
+        <f>_xlfn.IFNA(H16/(VLOOKUP(TEXT(A16,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>111.9154273427701</v>
+      </c>
+      <c r="J16" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A16,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>47592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>400115</v>
       </c>
@@ -1485,11 +1646,20 @@
       <c r="G17">
         <v>2361</v>
       </c>
-      <c r="H17">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>2244.3333333333335</v>
+      </c>
+      <c r="I17" s="3">
+        <f>_xlfn.IFNA(H17/(VLOOKUP(TEXT(A17,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>94.386968346090228</v>
+      </c>
+      <c r="J17" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A17,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>400116</v>
       </c>
@@ -1511,11 +1681,20 @@
       <c r="G18">
         <v>2956</v>
       </c>
-      <c r="H18">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>2940.3333333333335</v>
+      </c>
+      <c r="I18" s="3">
+        <f>_xlfn.IFNA(H18/(VLOOKUP(TEXT(A18,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>136.91889794334497</v>
+      </c>
+      <c r="J18" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A18,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>50675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>400117</v>
       </c>
@@ -1537,11 +1716,20 @@
       <c r="G19">
         <v>3512</v>
       </c>
-      <c r="H19">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>3548.3333333333335</v>
+      </c>
+      <c r="I19" s="3">
+        <f>_xlfn.IFNA(H19/(VLOOKUP(TEXT(A19,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>145.87187392942789</v>
+      </c>
+      <c r="J19" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A19,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>48019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>400118</v>
       </c>
@@ -1563,11 +1751,20 @@
       <c r="G20">
         <v>2928</v>
       </c>
-      <c r="H20">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>2711.6666666666665</v>
+      </c>
+      <c r="I20" s="3">
+        <f>_xlfn.IFNA(H20/(VLOOKUP(TEXT(A20,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>176.932445952412</v>
+      </c>
+      <c r="J20" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A20,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>49399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>400119</v>
       </c>
@@ -1589,11 +1786,20 @@
       <c r="G21">
         <v>2332</v>
       </c>
-      <c r="H21">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>2100.6666666666665</v>
+      </c>
+      <c r="I21" s="3">
+        <f>_xlfn.IFNA(H21/(VLOOKUP(TEXT(A21,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>89.067910395025081</v>
+      </c>
+      <c r="J21" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A21,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>35433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>400120</v>
       </c>
@@ -1615,11 +1821,20 @@
       <c r="G22">
         <v>3625</v>
       </c>
-      <c r="H22">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>3620.3333333333335</v>
+      </c>
+      <c r="I22" s="3">
+        <f>_xlfn.IFNA(H22/(VLOOKUP(TEXT(A22,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>118.90217200910843</v>
+      </c>
+      <c r="J22" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A22,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>400121</v>
       </c>
@@ -1641,11 +1856,20 @@
       <c r="G23">
         <v>4391</v>
       </c>
-      <c r="H23">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>4094.3333333333335</v>
+      </c>
+      <c r="I23" s="3">
+        <f>_xlfn.IFNA(H23/(VLOOKUP(TEXT(A23,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>125.36231884057973</v>
+      </c>
+      <c r="J23" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A23,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>400122</v>
       </c>
@@ -1667,11 +1891,20 @@
       <c r="G24">
         <v>1671</v>
       </c>
-      <c r="H24">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>1588.3333333333333</v>
+      </c>
+      <c r="I24" s="3">
+        <f>_xlfn.IFNA(H24/(VLOOKUP(TEXT(A24,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>92.841555607513044</v>
+      </c>
+      <c r="J24" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A24,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>31437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>400123</v>
       </c>
@@ -1693,11 +1926,20 @@
       <c r="G25">
         <v>2415</v>
       </c>
-      <c r="H25">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>2297.3333333333335</v>
+      </c>
+      <c r="I25" s="3">
+        <f>_xlfn.IFNA(H25/(VLOOKUP(TEXT(A25,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>111.64568855194311</v>
+      </c>
+      <c r="J25" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A25,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>35154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>400124</v>
       </c>
@@ -1719,11 +1961,20 @@
       <c r="G26">
         <v>2326</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
         <v>2251</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="str">
+        <f>_xlfn.IFNA(H26/(VLOOKUP(TEXT(A26,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A26,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>400125</v>
       </c>
@@ -1745,11 +1996,20 @@
       <c r="G27">
         <v>2341</v>
       </c>
-      <c r="H27">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>2180.6666666666665</v>
+      </c>
+      <c r="I27" s="3">
+        <f>_xlfn.IFNA(H27/(VLOOKUP(TEXT(A27,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>87.359453035280282</v>
+      </c>
+      <c r="J27" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A27,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>400126</v>
       </c>
@@ -1771,11 +2031,20 @@
       <c r="G28">
         <v>3498</v>
       </c>
-      <c r="H28">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>3325.3333333333335</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>_xlfn.IFNA(H28/(VLOOKUP(TEXT(A28,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A28,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>400127</v>
       </c>
@@ -1797,11 +2066,20 @@
       <c r="G29">
         <v>3725</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
         <v>3586</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="str">
+        <f>_xlfn.IFNA(H29/(VLOOKUP(TEXT(A29,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A29,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>400128</v>
       </c>
@@ -1823,11 +2101,20 @@
       <c r="G30">
         <v>2508</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
         <v>2406</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="3">
+        <f>_xlfn.IFNA(H30/(VLOOKUP(TEXT(A30,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>79.19684002633312</v>
+      </c>
+      <c r="J30" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A30,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>400129</v>
       </c>
@@ -1849,11 +2136,20 @@
       <c r="G31">
         <v>3452</v>
       </c>
-      <c r="H31">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>3375.6666666666665</v>
+      </c>
+      <c r="I31" s="3">
+        <f>_xlfn.IFNA(H31/(VLOOKUP(TEXT(A31,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v>78.062730769527235</v>
+      </c>
+      <c r="J31" s="3">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A31,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v>52580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>400130</v>
       </c>
@@ -1875,11 +2171,20 @@
       <c r="G32">
         <v>10211</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
         <v>10268</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="str">
+        <f>_xlfn.IFNA(H32/(VLOOKUP(TEXT(A32,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A32,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>400131</v>
       </c>
@@ -1901,11 +2206,20 @@
       <c r="G33">
         <v>9083</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
         <v>8960</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="str">
+        <f>_xlfn.IFNA(H33/(VLOOKUP(TEXT(A33,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A33,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>400132</v>
       </c>
@@ -1927,11 +2241,20 @@
       <c r="G34">
         <v>6408</v>
       </c>
-      <c r="H34">
-        <v>6049</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>6048.666666666667</v>
+      </c>
+      <c r="I34" t="str">
+        <f>_xlfn.IFNA(H34/(VLOOKUP(TEXT(A34,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A34,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>400133</v>
       </c>
@@ -1953,11 +2276,20 @@
       <c r="G35">
         <v>4114</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
         <v>3895</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="str">
+        <f>_xlfn.IFNA(H35/(VLOOKUP(TEXT(A35,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A35,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>400134</v>
       </c>
@@ -1979,22 +2311,36 @@
       <c r="G36">
         <v>7894</v>
       </c>
-      <c r="H36">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>7337.666666666667</v>
+      </c>
+      <c r="I36" t="str">
+        <f>_xlfn.IFNA(H36/(VLOOKUP(TEXT(A36,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(TEXT(A36,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$K$1),FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>400500</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="str">
+        <f>_xlfn.IFNA(H37/(VLOOKUP(TEXT(A37,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>400700</v>
       </c>
@@ -2016,11 +2362,16 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="str">
+        <f>_xlfn.IFNA(H38/(VLOOKUP(TEXT(A38,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>400805</v>
       </c>
@@ -2042,8 +2393,13 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f>_xlfn.IFNA(H39/(VLOOKUP(TEXT(A39,"0000000"),Sheet1!$A$1:$S$38,COLUMN(Sheet1!$Q$1),FALSE)/1000),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2053,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2069,13 +2425,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -2087,22 +2443,22 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -2114,13 +2470,13 @@
         <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2128,13 +2484,13 @@
         <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>977426</v>
+        <v>1601571</v>
       </c>
       <c r="C2" s="2">
-        <v>24548</v>
+        <v>5087</v>
       </c>
       <c r="D2" s="2">
-        <v>1.526744362497374</v>
+        <v>0.1930854901721791</v>
       </c>
       <c r="E2" s="2">
         <v>624145</v>
@@ -2146,22 +2502,22 @@
         <v>2.399196995106327</v>
       </c>
       <c r="H2" s="2">
-        <v>1601571</v>
+        <v>977426</v>
       </c>
       <c r="I2" s="2">
-        <v>5087</v>
+        <v>24548</v>
       </c>
       <c r="J2" s="2">
-        <v>0.1930854901721791</v>
+        <v>1.526744362497374</v>
       </c>
       <c r="K2" s="2">
-        <v>354237</v>
+        <v>602039</v>
       </c>
       <c r="L2" s="2">
-        <v>9062</v>
+        <v>7755</v>
       </c>
       <c r="M2" s="2">
-        <v>1.555121173018531</v>
+        <v>0.78305320988934524</v>
       </c>
       <c r="N2" s="2">
         <v>247802</v>
@@ -2173,13 +2529,13 @@
         <v>2.0054740733415728</v>
       </c>
       <c r="Q2" s="2">
-        <v>602039</v>
+        <v>354237</v>
       </c>
       <c r="R2" s="2">
-        <v>7755</v>
+        <v>9062</v>
       </c>
       <c r="S2" s="2">
-        <v>0.78305320988934524</v>
+        <v>1.555121173018531</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2187,13 +2543,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2">
-        <v>3011806</v>
+        <v>4435558</v>
       </c>
       <c r="C3" s="2">
-        <v>35453</v>
+        <v>5794</v>
       </c>
       <c r="D3" s="2">
-        <v>0.71558313131358986</v>
+        <v>7.9408012472117928E-2</v>
       </c>
       <c r="E3" s="2">
         <v>1423752</v>
@@ -2205,22 +2561,22 @@
         <v>1.4774524185857241</v>
       </c>
       <c r="H3" s="2">
-        <v>4435558</v>
+        <v>3011806</v>
       </c>
       <c r="I3" s="2">
-        <v>5794</v>
+        <v>35453</v>
       </c>
       <c r="J3" s="2">
-        <v>7.9408012472117928E-2</v>
+        <v>0.71558313131358986</v>
       </c>
       <c r="K3" s="2">
-        <v>1124423</v>
+        <v>1708034</v>
       </c>
       <c r="L3" s="2">
-        <v>11341</v>
+        <v>7178</v>
       </c>
       <c r="M3" s="2">
-        <v>0.61313446309904351</v>
+        <v>0.25547066603277568</v>
       </c>
       <c r="N3" s="2">
         <v>583611</v>
@@ -2232,13 +2588,13 @@
         <v>1.1337026502002501</v>
       </c>
       <c r="Q3" s="2">
-        <v>1708034</v>
+        <v>1124423</v>
       </c>
       <c r="R3" s="2">
-        <v>7178</v>
+        <v>11341</v>
       </c>
       <c r="S3" s="2">
-        <v>0.25547066603277568</v>
+        <v>0.61313446309904351</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -2246,13 +2602,13 @@
         <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>221165400</v>
+        <v>324132886</v>
       </c>
       <c r="C4" s="2">
-        <v>446165</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1226344283564057</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>102967486</v>
@@ -2264,22 +2620,22 @@
         <v>0.26340831902233491</v>
       </c>
       <c r="H4" s="2">
-        <v>324132886</v>
+        <v>221165400</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>446165</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>0.1226344283564057</v>
       </c>
       <c r="K4" s="2">
-        <v>83396988</v>
+        <v>127544730</v>
       </c>
       <c r="L4" s="2">
-        <v>187164</v>
+        <v>97632</v>
       </c>
       <c r="M4" s="2">
-        <v>0.13642879716325509</v>
+        <v>4.6533290617667582E-2</v>
       </c>
       <c r="N4" s="2">
         <v>44147742</v>
@@ -2291,13 +2647,13 @@
         <v>0.17364462801024039</v>
       </c>
       <c r="Q4" s="2">
-        <v>127544730</v>
+        <v>83396988</v>
       </c>
       <c r="R4" s="2">
-        <v>97632</v>
+        <v>187164</v>
       </c>
       <c r="S4" s="2">
-        <v>4.6533290617667582E-2</v>
+        <v>0.13642879716325509</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2305,13 +2661,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>4934464</v>
+        <v>7130607</v>
       </c>
       <c r="C5" s="2">
-        <v>41714</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.51389684292450399</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>2196143</v>
@@ -2323,22 +2679,22 @@
         <v>1.15466318501328</v>
       </c>
       <c r="H5" s="2">
-        <v>7130607</v>
+        <v>4934464</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>41714</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>0.51389684292450399</v>
       </c>
       <c r="K5" s="2">
-        <v>1905690</v>
+        <v>2817723</v>
       </c>
       <c r="L5" s="2">
-        <v>14256</v>
+        <v>10850</v>
       </c>
       <c r="M5" s="2">
-        <v>0.45475714298633518</v>
+        <v>0.23408066303362901</v>
       </c>
       <c r="N5" s="2">
         <v>912033</v>
@@ -2350,13 +2706,13 @@
         <v>0.95494598248103046</v>
       </c>
       <c r="Q5" s="2">
-        <v>2817723</v>
+        <v>1905690</v>
       </c>
       <c r="R5" s="2">
-        <v>10850</v>
+        <v>14256</v>
       </c>
       <c r="S5" s="2">
-        <v>0.23408066303362901</v>
+        <v>0.45475714298633518</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -2364,13 +2720,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="2">
-        <v>812886</v>
+        <v>1431845</v>
       </c>
       <c r="C6" s="2">
-        <v>21067</v>
+        <v>9136</v>
       </c>
       <c r="D6" s="2">
-        <v>1.5754591578759121</v>
+        <v>0.38787713698740178</v>
       </c>
       <c r="E6" s="2">
         <v>618959</v>
@@ -2382,22 +2738,22 @@
         <v>2.1284880073003838</v>
       </c>
       <c r="H6" s="2">
-        <v>1431845</v>
+        <v>812886</v>
       </c>
       <c r="I6" s="2">
-        <v>9136</v>
+        <v>21067</v>
       </c>
       <c r="J6" s="2">
-        <v>0.38787713698740178</v>
+        <v>1.5754591578759121</v>
       </c>
       <c r="K6" s="2">
-        <v>290123</v>
+        <v>549245</v>
       </c>
       <c r="L6" s="2">
-        <v>6616</v>
+        <v>5787</v>
       </c>
       <c r="M6" s="2">
-        <v>1.3862687544525061</v>
+        <v>0.64050344212493293</v>
       </c>
       <c r="N6" s="2">
         <v>259122</v>
@@ -2409,13 +2765,13 @@
         <v>1.978859214759104</v>
       </c>
       <c r="Q6" s="2">
-        <v>549245</v>
+        <v>290123</v>
       </c>
       <c r="R6" s="2">
-        <v>5787</v>
+        <v>6616</v>
       </c>
       <c r="S6" s="2">
-        <v>0.64050344212493293</v>
+        <v>1.3862687544525061</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -2423,13 +2779,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>1024291</v>
+        <v>2245198</v>
       </c>
       <c r="C7" s="2">
-        <v>25301</v>
+        <v>14107</v>
       </c>
       <c r="D7" s="2">
-        <v>1.501579835462969</v>
+        <v>0.38195668669656341</v>
       </c>
       <c r="E7" s="2">
         <v>1220907</v>
@@ -2441,22 +2797,22 @@
         <v>1.2938211168898719</v>
       </c>
       <c r="H7" s="2">
-        <v>2245198</v>
+        <v>1024291</v>
       </c>
       <c r="I7" s="2">
-        <v>14107</v>
+        <v>25301</v>
       </c>
       <c r="J7" s="2">
-        <v>0.38195668669656341</v>
+        <v>1.501579835462969</v>
       </c>
       <c r="K7" s="2">
-        <v>390226</v>
+        <v>924981</v>
       </c>
       <c r="L7" s="2">
-        <v>9351</v>
+        <v>9366</v>
       </c>
       <c r="M7" s="2">
-        <v>1.4567195625722431</v>
+        <v>0.61553880796217386</v>
       </c>
       <c r="N7" s="2">
         <v>534755</v>
@@ -2468,13 +2824,13 @@
         <v>1.1647523498745089</v>
       </c>
       <c r="Q7" s="2">
-        <v>924981</v>
+        <v>390226</v>
       </c>
       <c r="R7" s="2">
-        <v>9366</v>
+        <v>9351</v>
       </c>
       <c r="S7" s="2">
-        <v>0.61553880796217386</v>
+        <v>1.4567195625722431</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2482,13 +2838,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>566725</v>
+        <v>933775</v>
       </c>
       <c r="C8" s="2">
-        <v>15957</v>
+        <v>7054</v>
       </c>
       <c r="D8" s="2">
-        <v>1.7116421459028239</v>
+        <v>0.45922689048823712</v>
       </c>
       <c r="E8" s="2">
         <v>367050</v>
@@ -2500,22 +2856,22 @@
         <v>2.674242057246865</v>
       </c>
       <c r="H8" s="2">
-        <v>933775</v>
+        <v>566725</v>
       </c>
       <c r="I8" s="2">
-        <v>7054</v>
+        <v>15957</v>
       </c>
       <c r="J8" s="2">
-        <v>0.45922689048823712</v>
+        <v>1.7116421459028239</v>
       </c>
       <c r="K8" s="2">
-        <v>226429</v>
+        <v>386283</v>
       </c>
       <c r="L8" s="2">
-        <v>5690</v>
+        <v>5159</v>
       </c>
       <c r="M8" s="2">
-        <v>1.527616411921416</v>
+        <v>0.81188408828914482</v>
       </c>
       <c r="N8" s="2">
         <v>159854</v>
@@ -2527,780 +2883,1783 @@
         <v>2.421662654710417</v>
       </c>
       <c r="Q8" s="2">
-        <v>386283</v>
+        <v>226429</v>
       </c>
       <c r="R8" s="2">
-        <v>5159</v>
+        <v>5690</v>
       </c>
       <c r="S8" s="2">
-        <v>0.81188408828914482</v>
+        <v>1.527616411921416</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2">
-        <v>211313</v>
+        <v>519653</v>
       </c>
       <c r="C9" s="2">
-        <v>7180</v>
+        <v>2906</v>
       </c>
       <c r="D9" s="2">
-        <v>2.0655338958499412</v>
+        <v>0.33995095757054672</v>
       </c>
       <c r="E9" s="2">
-        <v>61393</v>
+        <v>238949</v>
       </c>
       <c r="F9" s="2">
-        <v>7212</v>
+        <v>9436</v>
       </c>
       <c r="G9" s="2">
-        <v>7.1411961117315972</v>
+        <v>2.4005834771294121</v>
       </c>
       <c r="H9" s="2">
-        <v>272706</v>
+        <v>280704</v>
       </c>
       <c r="I9" s="2">
-        <v>295</v>
+        <v>9955</v>
       </c>
       <c r="J9" s="2">
-        <v>6.5759941838786626E-2</v>
+        <v>2.155890807584786</v>
       </c>
       <c r="K9" s="2">
-        <v>69983</v>
+        <v>223068</v>
       </c>
       <c r="L9" s="2">
-        <v>2583</v>
+        <v>4966</v>
       </c>
       <c r="M9" s="2">
-        <v>2.2437059942521</v>
+        <v>1.3533294711937309</v>
       </c>
       <c r="N9" s="2">
-        <v>23489</v>
+        <v>108360</v>
       </c>
       <c r="O9" s="2">
-        <v>2796</v>
+        <v>3896</v>
       </c>
       <c r="P9" s="2">
-        <v>7.2361362707319117</v>
+        <v>2.1856672736717981</v>
       </c>
       <c r="Q9" s="2">
-        <v>93472</v>
+        <v>114708</v>
       </c>
       <c r="R9" s="2">
-        <v>2773</v>
+        <v>4345</v>
       </c>
       <c r="S9" s="2">
-        <v>1.803443047879884</v>
+        <v>2.3026618771299621</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2">
-        <v>149253</v>
+        <v>557213</v>
       </c>
       <c r="C10" s="2">
-        <v>7918</v>
+        <v>1072</v>
       </c>
       <c r="D10" s="2">
-        <v>3.2249762887060029</v>
+        <v>0.1169519972654616</v>
       </c>
       <c r="E10" s="2">
-        <v>96720</v>
+        <v>193689</v>
       </c>
       <c r="F10" s="2">
-        <v>8022</v>
+        <v>11875</v>
       </c>
       <c r="G10" s="2">
-        <v>5.041972440737025</v>
+        <v>3.7270288889934018</v>
       </c>
       <c r="H10" s="2">
-        <v>245973</v>
+        <v>363524</v>
       </c>
       <c r="I10" s="2">
-        <v>1246</v>
+        <v>11790</v>
       </c>
       <c r="J10" s="2">
-        <v>0.30793900489510567</v>
+        <v>1.9715818631726201</v>
       </c>
       <c r="K10" s="2">
-        <v>52463</v>
+        <v>243582</v>
       </c>
       <c r="L10" s="2">
-        <v>2915</v>
+        <v>2744</v>
       </c>
       <c r="M10" s="2">
-        <v>3.37768803569017</v>
+        <v>0.68481460304249853</v>
       </c>
       <c r="N10" s="2">
-        <v>38141</v>
+        <v>95618</v>
       </c>
       <c r="O10" s="2">
-        <v>2666</v>
+        <v>4565</v>
       </c>
       <c r="P10" s="2">
-        <v>4.2491510264783789</v>
+        <v>2.9022527012089201</v>
       </c>
       <c r="Q10" s="2">
-        <v>90604</v>
+        <v>147964</v>
       </c>
       <c r="R10" s="2">
-        <v>2635</v>
+        <v>3964</v>
       </c>
       <c r="S10" s="2">
-        <v>1.7679392832619829</v>
+        <v>1.6285896865244229</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
-        <v>76688</v>
+        <v>272706</v>
       </c>
       <c r="C11" s="2">
-        <v>6722</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2">
-        <v>5.3285027493869288</v>
+        <v>6.5759941838786626E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>19398</v>
+        <v>61393</v>
       </c>
       <c r="F11" s="2">
-        <v>6299</v>
+        <v>7212</v>
       </c>
       <c r="G11" s="2">
-        <v>19.740072849298851</v>
+        <v>7.1411961117315972</v>
       </c>
       <c r="H11" s="2">
-        <v>96086</v>
+        <v>211313</v>
       </c>
       <c r="I11" s="2">
-        <v>2567</v>
+        <v>7180</v>
       </c>
       <c r="J11" s="2">
-        <v>1.624051705959713</v>
+        <v>2.0655338958499412</v>
       </c>
       <c r="K11" s="2">
-        <v>25725</v>
+        <v>93472</v>
       </c>
       <c r="L11" s="2">
-        <v>2612</v>
+        <v>2773</v>
       </c>
       <c r="M11" s="2">
-        <v>6.1723690778960307</v>
+        <v>1.803443047879884</v>
       </c>
       <c r="N11" s="2">
-        <v>7405</v>
+        <v>23489</v>
       </c>
       <c r="O11" s="2">
-        <v>1710</v>
+        <v>2796</v>
       </c>
       <c r="P11" s="2">
-        <v>14.037996999480759</v>
+        <v>7.2361362707319117</v>
       </c>
       <c r="Q11" s="2">
-        <v>33130</v>
+        <v>69983</v>
       </c>
       <c r="R11" s="2">
-        <v>2366</v>
+        <v>2583</v>
       </c>
       <c r="S11" s="2">
-        <v>4.3413760106864636</v>
+        <v>2.2437059942521</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>86464</v>
+        <v>245973</v>
       </c>
       <c r="C12" s="2">
-        <v>5092</v>
+        <v>1246</v>
       </c>
       <c r="D12" s="2">
-        <v>3.5800341523446551</v>
+        <v>0.30793900489510567</v>
       </c>
       <c r="E12" s="2">
-        <v>8659</v>
+        <v>96720</v>
       </c>
       <c r="F12" s="2">
-        <v>4932</v>
+        <v>8022</v>
       </c>
       <c r="G12" s="2">
-        <v>34.624971610963307</v>
+        <v>5.041972440737025</v>
       </c>
       <c r="H12" s="2">
-        <v>95123</v>
+        <v>149253</v>
       </c>
       <c r="I12" s="2">
-        <v>1821</v>
+        <v>7918</v>
       </c>
       <c r="J12" s="2">
-        <v>1.1637468135560971</v>
+        <v>3.2249762887060029</v>
       </c>
       <c r="K12" s="2">
-        <v>28562</v>
+        <v>90604</v>
       </c>
       <c r="L12" s="2">
-        <v>2327</v>
+        <v>2635</v>
       </c>
       <c r="M12" s="2">
-        <v>4.9526982201998999</v>
+        <v>1.7679392832619829</v>
       </c>
       <c r="N12" s="2">
-        <v>2351</v>
+        <v>38141</v>
       </c>
       <c r="O12" s="2">
-        <v>1023</v>
+        <v>2666</v>
       </c>
       <c r="P12" s="2">
-        <v>26.451914014472269</v>
+        <v>4.2491510264783789</v>
       </c>
       <c r="Q12" s="2">
-        <v>30913</v>
+        <v>52463</v>
       </c>
       <c r="R12" s="2">
-        <v>2250</v>
+        <v>2915</v>
       </c>
       <c r="S12" s="2">
-        <v>4.4246147414201067</v>
+        <v>3.37768803569017</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>191565</v>
+        <v>96086</v>
       </c>
       <c r="C13" s="2">
-        <v>7682</v>
+        <v>2567</v>
       </c>
       <c r="D13" s="2">
-        <v>2.4377672406700941</v>
+        <v>1.624051705959713</v>
       </c>
       <c r="E13" s="2">
-        <v>87080</v>
+        <v>19398</v>
       </c>
       <c r="F13" s="2">
-        <v>7739</v>
+        <v>6299</v>
       </c>
       <c r="G13" s="2">
-        <v>5.402571509550663</v>
+        <v>19.740072849298851</v>
       </c>
       <c r="H13" s="2">
-        <v>278645</v>
+        <v>76688</v>
       </c>
       <c r="I13" s="2">
-        <v>405</v>
+        <v>6722</v>
       </c>
       <c r="J13" s="2">
-        <v>8.8356370257042308E-2</v>
+        <v>5.3285027493869288</v>
       </c>
       <c r="K13" s="2">
-        <v>71036</v>
+        <v>33130</v>
       </c>
       <c r="L13" s="2">
-        <v>3087</v>
+        <v>2366</v>
       </c>
       <c r="M13" s="2">
-        <v>2.6417531176880051</v>
+        <v>4.3413760106864636</v>
       </c>
       <c r="N13" s="2">
-        <v>36632</v>
+        <v>7405</v>
       </c>
       <c r="O13" s="2">
-        <v>3017</v>
+        <v>1710</v>
       </c>
       <c r="P13" s="2">
-        <v>5.0066678128179989</v>
+        <v>14.037996999480759</v>
       </c>
       <c r="Q13" s="2">
-        <v>107668</v>
+        <v>25725</v>
       </c>
       <c r="R13" s="2">
-        <v>2846</v>
+        <v>2612</v>
       </c>
       <c r="S13" s="2">
-        <v>1.6068759384499891</v>
+        <v>6.1723690778960307</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
-        <v>328317</v>
+        <v>95123</v>
       </c>
       <c r="C14" s="2">
-        <v>9398</v>
+        <v>1821</v>
       </c>
       <c r="D14" s="2">
-        <v>1.7401078557657961</v>
+        <v>1.1637468135560971</v>
       </c>
       <c r="E14" s="2">
-        <v>177138</v>
+        <v>8659</v>
       </c>
       <c r="F14" s="2">
-        <v>9306</v>
+        <v>4932</v>
       </c>
       <c r="G14" s="2">
-        <v>3.193635954534237</v>
+        <v>34.624971610963307</v>
       </c>
       <c r="H14" s="2">
-        <v>505455</v>
+        <v>86464</v>
       </c>
       <c r="I14" s="2">
-        <v>1240</v>
+        <v>5092</v>
       </c>
       <c r="J14" s="2">
-        <v>0.1491328391443876</v>
+        <v>3.5800341523446551</v>
       </c>
       <c r="K14" s="2">
-        <v>126146</v>
+        <v>30913</v>
       </c>
       <c r="L14" s="2">
-        <v>4698</v>
+        <v>2250</v>
       </c>
       <c r="M14" s="2">
-        <v>2.26398542297951</v>
+        <v>4.4246147414201067</v>
       </c>
       <c r="N14" s="2">
-        <v>72966</v>
+        <v>2351</v>
       </c>
       <c r="O14" s="2">
-        <v>3782</v>
+        <v>1023</v>
       </c>
       <c r="P14" s="2">
-        <v>3.1509033603276269</v>
+        <v>26.451914014472269</v>
       </c>
       <c r="Q14" s="2">
-        <v>199112</v>
+        <v>28562</v>
       </c>
       <c r="R14" s="2">
-        <v>5108</v>
+        <v>2327</v>
       </c>
       <c r="S14" s="2">
-        <v>1.5595078012637511</v>
+        <v>4.9526982201998999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
-        <v>114315</v>
+        <v>278645</v>
       </c>
       <c r="C15" s="2">
-        <v>6557</v>
+        <v>405</v>
       </c>
       <c r="D15" s="2">
-        <v>3.486872446382423</v>
+        <v>8.8356370257042308E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>34475</v>
+        <v>87080</v>
       </c>
       <c r="F15" s="2">
-        <v>6577</v>
+        <v>7739</v>
       </c>
       <c r="G15" s="2">
-        <v>11.597320643345361</v>
+        <v>5.402571509550663</v>
       </c>
       <c r="H15" s="2">
-        <v>148790</v>
+        <v>191565</v>
       </c>
       <c r="I15" s="2">
-        <v>207</v>
+        <v>7682</v>
       </c>
       <c r="J15" s="2">
-        <v>8.4572798078767511E-2</v>
+        <v>2.4377672406700941</v>
       </c>
       <c r="K15" s="2">
-        <v>43073</v>
+        <v>107668</v>
       </c>
       <c r="L15" s="2">
-        <v>2758</v>
+        <v>2846</v>
       </c>
       <c r="M15" s="2">
-        <v>3.892451755579716</v>
+        <v>1.6068759384499891</v>
       </c>
       <c r="N15" s="2">
-        <v>12266</v>
+        <v>36632</v>
       </c>
       <c r="O15" s="2">
-        <v>1867</v>
+        <v>3017</v>
       </c>
       <c r="P15" s="2">
-        <v>9.2528485838483032</v>
+        <v>5.0066678128179989</v>
       </c>
       <c r="Q15" s="2">
-        <v>55339</v>
+        <v>71036</v>
       </c>
       <c r="R15" s="2">
-        <v>2555</v>
+        <v>3087</v>
       </c>
       <c r="S15" s="2">
-        <v>2.8066851395249319</v>
+        <v>2.6417531176880051</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2">
-        <v>55674</v>
+        <v>505455</v>
       </c>
       <c r="C16" s="2">
-        <v>5556</v>
+        <v>1240</v>
       </c>
       <c r="D16" s="2">
-        <v>6.0665797298275574</v>
+        <v>0.1491328391443876</v>
       </c>
       <c r="E16" s="2">
-        <v>34781</v>
+        <v>177138</v>
       </c>
       <c r="F16" s="2">
-        <v>5581</v>
+        <v>9306</v>
       </c>
       <c r="G16" s="2">
-        <v>9.7544785002537377</v>
+        <v>3.193635954534237</v>
       </c>
       <c r="H16" s="2">
-        <v>90455</v>
+        <v>328317</v>
       </c>
       <c r="I16" s="2">
-        <v>218</v>
+        <v>9398</v>
       </c>
       <c r="J16" s="2">
-        <v>0.14650687784266611</v>
+        <v>1.7401078557657961</v>
       </c>
       <c r="K16" s="2">
-        <v>16016</v>
+        <v>199112</v>
       </c>
       <c r="L16" s="2">
-        <v>1697</v>
+        <v>5108</v>
       </c>
       <c r="M16" s="2">
-        <v>6.4411272617959536</v>
+        <v>1.5595078012637511</v>
       </c>
       <c r="N16" s="2">
-        <v>10595</v>
+        <v>72966</v>
       </c>
       <c r="O16" s="2">
-        <v>1524</v>
+        <v>3782</v>
       </c>
       <c r="P16" s="2">
-        <v>8.7441601604243555</v>
+        <v>3.1509033603276269</v>
       </c>
       <c r="Q16" s="2">
-        <v>26611</v>
+        <v>126146</v>
       </c>
       <c r="R16" s="2">
-        <v>1944</v>
+        <v>4698</v>
       </c>
       <c r="S16" s="2">
-        <v>4.4408812819252592</v>
+        <v>2.26398542297951</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
-        <v>152655</v>
+        <v>148790</v>
       </c>
       <c r="C17" s="2">
-        <v>6680</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2">
-        <v>2.6601095762053202</v>
+        <v>8.4572798078767511E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>41044</v>
+        <v>34475</v>
       </c>
       <c r="F17" s="2">
-        <v>6591</v>
+        <v>6577</v>
       </c>
       <c r="G17" s="2">
-        <v>9.761930928006981</v>
+        <v>11.597320643345361</v>
       </c>
       <c r="H17" s="2">
-        <v>193699</v>
+        <v>114315</v>
       </c>
       <c r="I17" s="2">
-        <v>506</v>
+        <v>6557</v>
       </c>
       <c r="J17" s="2">
-        <v>0.15880246371665771</v>
+        <v>3.486872446382423</v>
       </c>
       <c r="K17" s="2">
-        <v>58326</v>
+        <v>55339</v>
       </c>
       <c r="L17" s="2">
-        <v>3011</v>
+        <v>2555</v>
       </c>
       <c r="M17" s="2">
-        <v>3.138214752902849</v>
+        <v>2.8066851395249319</v>
       </c>
       <c r="N17" s="2">
-        <v>17153</v>
+        <v>12266</v>
       </c>
       <c r="O17" s="2">
-        <v>2298</v>
+        <v>1867</v>
       </c>
       <c r="P17" s="2">
-        <v>8.1441175673187693</v>
+        <v>9.2528485838483032</v>
       </c>
       <c r="Q17" s="2">
-        <v>75479</v>
+        <v>43073</v>
       </c>
       <c r="R17" s="2">
-        <v>3016</v>
+        <v>2758</v>
       </c>
       <c r="S17" s="2">
-        <v>2.4290658997283048</v>
+        <v>3.892451755579716</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
-        <v>171568</v>
+        <v>90455</v>
       </c>
       <c r="C18" s="2">
-        <v>5108</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2">
-        <v>1.8098754856688191</v>
+        <v>0.14650687784266611</v>
       </c>
       <c r="E18" s="2">
-        <v>69496</v>
+        <v>34781</v>
       </c>
       <c r="F18" s="2">
-        <v>5242</v>
+        <v>5581</v>
       </c>
       <c r="G18" s="2">
-        <v>4.5853374867871954</v>
+        <v>9.7544785002537377</v>
       </c>
       <c r="H18" s="2">
-        <v>241064</v>
+        <v>55674</v>
       </c>
       <c r="I18" s="2">
-        <v>737</v>
+        <v>5556</v>
       </c>
       <c r="J18" s="2">
-        <v>0.18585285074064251</v>
+        <v>6.0665797298275574</v>
       </c>
       <c r="K18" s="2">
-        <v>80132</v>
+        <v>26611</v>
       </c>
       <c r="L18" s="2">
-        <v>2939</v>
+        <v>1944</v>
       </c>
       <c r="M18" s="2">
-        <v>2.229603828455085</v>
+        <v>4.4408812819252592</v>
       </c>
       <c r="N18" s="2">
-        <v>38990</v>
+        <v>10595</v>
       </c>
       <c r="O18" s="2">
-        <v>2937</v>
+        <v>1524</v>
       </c>
       <c r="P18" s="2">
-        <v>4.5791493571338906</v>
+        <v>8.7441601604243555</v>
       </c>
       <c r="Q18" s="2">
-        <v>119122</v>
+        <v>16016</v>
       </c>
       <c r="R18" s="2">
-        <v>3184</v>
+        <v>1697</v>
       </c>
       <c r="S18" s="2">
-        <v>1.6248571296909009</v>
+        <v>6.4411272617959536</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
-        <v>977426</v>
+        <v>193699</v>
       </c>
       <c r="C19" s="2">
-        <v>24548</v>
+        <v>506</v>
       </c>
       <c r="D19" s="2">
-        <v>1.526744362497374</v>
+        <v>0.15880246371665771</v>
       </c>
       <c r="E19" s="2">
-        <v>624145</v>
+        <v>41044</v>
       </c>
       <c r="F19" s="2">
-        <v>24633</v>
+        <v>6591</v>
       </c>
       <c r="G19" s="2">
-        <v>2.399196995106327</v>
+        <v>9.761930928006981</v>
       </c>
       <c r="H19" s="2">
-        <v>1601571</v>
+        <v>152655</v>
       </c>
       <c r="I19" s="2">
-        <v>5087</v>
+        <v>6680</v>
       </c>
       <c r="J19" s="2">
-        <v>0.1930854901721791</v>
+        <v>2.6601095762053202</v>
       </c>
       <c r="K19" s="2">
-        <v>354237</v>
+        <v>75479</v>
       </c>
       <c r="L19" s="2">
-        <v>9062</v>
+        <v>3016</v>
       </c>
       <c r="M19" s="2">
-        <v>1.555121173018531</v>
+        <v>2.4290658997283048</v>
       </c>
       <c r="N19" s="2">
-        <v>247802</v>
+        <v>17153</v>
       </c>
       <c r="O19" s="2">
-        <v>8175</v>
+        <v>2298</v>
       </c>
       <c r="P19" s="2">
-        <v>2.0054740733415728</v>
+        <v>8.1441175673187693</v>
       </c>
       <c r="Q19" s="2">
-        <v>602039</v>
+        <v>58326</v>
       </c>
       <c r="R19" s="2">
-        <v>7755</v>
+        <v>3011</v>
       </c>
       <c r="S19" s="2">
-        <v>0.78305320988934524</v>
+        <v>3.138214752902849</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
-        <v>76590</v>
+        <v>241064</v>
       </c>
       <c r="C20" s="2">
-        <v>6144</v>
+        <v>737</v>
       </c>
       <c r="D20" s="2">
-        <v>4.8765562179068196</v>
+        <v>0.18585285074064251</v>
       </c>
       <c r="E20" s="2">
-        <v>95403</v>
+        <v>69496</v>
       </c>
       <c r="F20" s="2">
-        <v>5795</v>
+        <v>5242</v>
       </c>
       <c r="G20" s="2">
-        <v>3.692542532817193</v>
+        <v>4.5853374867871954</v>
       </c>
       <c r="H20" s="2">
-        <v>171993</v>
+        <v>171568</v>
       </c>
       <c r="I20" s="2">
-        <v>3131</v>
+        <v>5108</v>
       </c>
       <c r="J20" s="2">
-        <v>1.1066400754946959</v>
+        <v>1.8098754856688191</v>
       </c>
       <c r="K20" s="2">
-        <v>32131</v>
+        <v>119122</v>
       </c>
       <c r="L20" s="2">
-        <v>2804</v>
+        <v>3184</v>
       </c>
       <c r="M20" s="2">
-        <v>5.3050302527674749</v>
+        <v>1.6248571296909009</v>
       </c>
       <c r="N20" s="2">
-        <v>45175</v>
+        <v>38990</v>
       </c>
       <c r="O20" s="2">
-        <v>2627</v>
+        <v>2937</v>
       </c>
       <c r="P20" s="2">
-        <v>3.535053649855425</v>
+        <v>4.5791493571338906</v>
       </c>
       <c r="Q20" s="2">
-        <v>77306</v>
+        <v>80132</v>
       </c>
       <c r="R20" s="2">
-        <v>2767</v>
+        <v>2939</v>
       </c>
       <c r="S20" s="2">
-        <v>2.175855521306123</v>
+        <v>2.229603828455085</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1601571</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5087</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.1930854901721791</v>
+      </c>
+      <c r="E21" s="2">
+        <v>624145</v>
+      </c>
+      <c r="F21" s="2">
+        <v>24633</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.399196995106327</v>
+      </c>
+      <c r="H21" s="2">
+        <v>977426</v>
+      </c>
+      <c r="I21" s="2">
+        <v>24548</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.526744362497374</v>
+      </c>
+      <c r="K21" s="2">
+        <v>602039</v>
+      </c>
+      <c r="L21" s="2">
+        <v>7755</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.78305320988934524</v>
+      </c>
+      <c r="N21" s="2">
+        <v>247802</v>
+      </c>
+      <c r="O21" s="2">
+        <v>8175</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2.0054740733415728</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>354237</v>
+      </c>
+      <c r="R21" s="2">
+        <v>9062</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1.555121173018531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2">
+        <v>171993</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3131</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.1066400754946959</v>
+      </c>
+      <c r="E22" s="2">
+        <v>95403</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5795</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.692542532817193</v>
+      </c>
+      <c r="H22" s="2">
+        <v>76590</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6144</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4.8765562179068196</v>
+      </c>
+      <c r="K22" s="2">
+        <v>77306</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2767</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.175855521306123</v>
+      </c>
+      <c r="N22" s="2">
+        <v>45175</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2627</v>
+      </c>
+      <c r="P22" s="2">
+        <v>3.535053649855425</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>32131</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2804</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5.3050302527674749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="2">
+        <v>69027</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4413</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.8864136816556911</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8062</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4237</v>
+      </c>
+      <c r="G23" s="2">
+        <v>31.9484481589867</v>
+      </c>
+      <c r="H23" s="2">
         <v>60965</v>
       </c>
-      <c r="C21" s="2">
+      <c r="I23" s="2">
         <v>6114</v>
       </c>
-      <c r="D21" s="2">
+      <c r="J23" s="2">
         <v>6.0964772004067314</v>
       </c>
-      <c r="E21" s="2">
-        <v>8062</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4237</v>
-      </c>
-      <c r="G21" s="2">
-        <v>31.9484481589867</v>
-      </c>
-      <c r="H21" s="2">
-        <v>69027</v>
-      </c>
-      <c r="I21" s="2">
-        <v>4413</v>
-      </c>
-      <c r="J21" s="2">
-        <v>3.8864136816556911</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="K23" s="2">
+        <v>20981</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1394</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4.0389705608591591</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2422</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1066</v>
+      </c>
+      <c r="P23" s="2">
+        <v>26.755752110215621</v>
+      </c>
+      <c r="Q23" s="2">
         <v>18559</v>
       </c>
-      <c r="L21" s="2">
+      <c r="R23" s="2">
         <v>1839</v>
       </c>
-      <c r="M21" s="2">
+      <c r="S23" s="2">
         <v>6.0236711606179654</v>
       </c>
-      <c r="N21" s="2">
-        <v>2422</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1066</v>
-      </c>
-      <c r="P21" s="2">
-        <v>26.755752110215621</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>20981</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1394</v>
-      </c>
-      <c r="S21" s="2">
-        <v>4.0389705608591591</v>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2">
+        <v>136823</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8727</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.877394278193198</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24541</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5881</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14.56776817506192</v>
+      </c>
+      <c r="H24" s="2">
+        <v>112282</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8238</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4.4601118038174503</v>
+      </c>
+      <c r="K24" s="2">
+        <v>58257</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3140</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.2765411704441592</v>
+      </c>
+      <c r="N24" s="2">
+        <v>12218</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2382</v>
+      </c>
+      <c r="P24" s="2">
+        <v>11.851565854554121</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>46039</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2979</v>
+      </c>
+      <c r="S24" s="2">
+        <v>3.9334960560397079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>107086</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9638</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.4712722161155938</v>
+      </c>
+      <c r="E25" s="2">
+        <v>29175</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6328</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13.18529052489562</v>
+      </c>
+      <c r="H25" s="2">
+        <v>77911</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6727</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5.2487603831649698</v>
+      </c>
+      <c r="K25" s="2">
+        <v>42867</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3030</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4.2968840570924014</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12419</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2357</v>
+      </c>
+      <c r="P25" s="2">
+        <v>11.537376179405459</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>30448</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2043</v>
+      </c>
+      <c r="S25" s="2">
+        <v>4.0789059667426404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>148288</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9792</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.0142045119133982</v>
+      </c>
+      <c r="E26" s="2">
+        <v>37158</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7089</v>
+      </c>
+      <c r="G26" s="2">
+        <v>11.59756308843645</v>
+      </c>
+      <c r="H26" s="2">
+        <v>111130</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9690</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5.3006186516681222</v>
+      </c>
+      <c r="K26" s="2">
+        <v>43773</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2705</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3.7566008719896939</v>
+      </c>
+      <c r="N26" s="2">
+        <v>11113</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1830</v>
+      </c>
+      <c r="P26" s="2">
+        <v>10.010456277144129</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>32660</v>
+      </c>
+      <c r="R26" s="2">
+        <v>2632</v>
+      </c>
+      <c r="S26" s="2">
+        <v>4.8989589712186161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2">
+        <v>109244</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9127</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.0788402726714548</v>
+      </c>
+      <c r="E27" s="2">
+        <v>28056</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5442</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11.7914409998934</v>
+      </c>
+      <c r="H27" s="2">
+        <v>81188</v>
+      </c>
+      <c r="I27" s="2">
+        <v>8817</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.6018111290497199</v>
+      </c>
+      <c r="K27" s="2">
+        <v>42676</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3152</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4.4898992934961131</v>
+      </c>
+      <c r="N27" s="2">
+        <v>12296</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2163</v>
+      </c>
+      <c r="P27" s="2">
+        <v>10.693669624441091</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>30380</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2630</v>
+      </c>
+      <c r="S27" s="2">
+        <v>5.2626207851510047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2">
+        <v>112795</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9862</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5.3150731664661572</v>
+      </c>
+      <c r="E28" s="2">
+        <v>35383</v>
+      </c>
+      <c r="F28" s="2">
+        <v>6542</v>
+      </c>
+      <c r="G28" s="2">
+        <v>11.23957746954366</v>
+      </c>
+      <c r="H28" s="2">
+        <v>77412</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9439</v>
+      </c>
+      <c r="J28" s="2">
+        <v>7.4122796478228752</v>
+      </c>
+      <c r="K28" s="2">
+        <v>35433</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2540</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4.3577257029556273</v>
+      </c>
+      <c r="N28" s="2">
+        <v>11848</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1825</v>
+      </c>
+      <c r="P28" s="2">
+        <v>9.3637955131770401</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>23585</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2560</v>
+      </c>
+      <c r="S28" s="2">
+        <v>6.5983930593152991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2">
+        <v>131742</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11570</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.3387945002018542</v>
+      </c>
+      <c r="E29" s="2">
+        <v>58552</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9.3461204152410069</v>
+      </c>
+      <c r="H29" s="2">
+        <v>73190</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9410</v>
+      </c>
+      <c r="J29" s="2">
+        <v>7.8157736598460676</v>
+      </c>
+      <c r="K29" s="2">
+        <v>35154</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2748</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4.7519961236992323</v>
+      </c>
+      <c r="N29" s="2">
+        <v>14577</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2244</v>
+      </c>
+      <c r="P29" s="2">
+        <v>9.3581240214160921</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>20577</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2270</v>
+      </c>
+      <c r="S29" s="2">
+        <v>6.7062215567208234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>109531</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10572</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.8675148773997696</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45980</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6822</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9.0193833449457994</v>
+      </c>
+      <c r="H30" s="2">
+        <v>63551</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7443</v>
+      </c>
+      <c r="J30" s="2">
+        <v>7.1196677641426156</v>
+      </c>
+      <c r="K30" s="2">
+        <v>44062</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3621</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4.9957237653105269</v>
+      </c>
+      <c r="N30" s="2">
+        <v>20284</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2587</v>
+      </c>
+      <c r="P30" s="2">
+        <v>7.7531274743625316</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>23778</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2298</v>
+      </c>
+      <c r="S30" s="2">
+        <v>5.8750125591815481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2">
+        <v>107022</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7447</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.230019689159727</v>
+      </c>
+      <c r="E31" s="2">
+        <v>71639</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6915</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5.8678197858894938</v>
+      </c>
+      <c r="H31" s="2">
+        <v>35383</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5264</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9.0438911341604733</v>
+      </c>
+      <c r="K31" s="2">
+        <v>49399</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3211</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.9514477699762698</v>
+      </c>
+      <c r="N31" s="2">
+        <v>34073</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2761</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4.9259514949888121</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>15326</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2036</v>
+      </c>
+      <c r="S31" s="2">
+        <v>8.075753422973138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2">
+        <v>103763</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8251</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.8339056032734407</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45300</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6631</v>
+      </c>
+      <c r="G32" s="2">
+        <v>8.8984614558800832</v>
+      </c>
+      <c r="H32" s="2">
+        <v>58463</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6052</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6.2929157854080362</v>
+      </c>
+      <c r="K32" s="2">
+        <v>47592</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3071</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3.922653599159216</v>
+      </c>
+      <c r="N32" s="2">
+        <v>19687</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2309</v>
+      </c>
+      <c r="P32" s="2">
+        <v>7.1298187454328934</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>27905</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2400</v>
+      </c>
+      <c r="S32" s="2">
+        <v>5.2283338661513854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2">
+        <v>98264</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7853</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.8581985084779982</v>
+      </c>
+      <c r="E33" s="2">
+        <v>26148</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4626</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10.754773040810949</v>
+      </c>
+      <c r="H33" s="2">
+        <v>72116</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6606</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5.5685360684516887</v>
+      </c>
+      <c r="K33" s="2">
+        <v>43131</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2969</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4.1846078734193464</v>
+      </c>
+      <c r="N33" s="2">
+        <v>12599</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1809</v>
+      </c>
+      <c r="P33" s="2">
+        <v>8.7284391509819752</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>30532</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2398</v>
+      </c>
+      <c r="S33" s="2">
+        <v>4.7745013752077146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>110884</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9410</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.1588730038971704</v>
+      </c>
+      <c r="E34" s="2">
+        <v>50316</v>
+      </c>
+      <c r="F34" s="2">
+        <v>7072</v>
+      </c>
+      <c r="G34" s="2">
+        <v>8.5441770925682814</v>
+      </c>
+      <c r="H34" s="2">
+        <v>60568</v>
+      </c>
+      <c r="I34" s="2">
+        <v>7888</v>
+      </c>
+      <c r="J34" s="2">
+        <v>7.916947526937494</v>
+      </c>
+      <c r="K34" s="2">
+        <v>48019</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2891</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3.6598988077857482</v>
+      </c>
+      <c r="N34" s="2">
+        <v>23694</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2453</v>
+      </c>
+      <c r="P34" s="2">
+        <v>6.2935148574928101</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>24325</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2290</v>
+      </c>
+      <c r="S34" s="2">
+        <v>5.7229075619226721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>107968</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10293</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5.7953679397070026</v>
+      </c>
+      <c r="E35" s="2">
+        <v>47855</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8948</v>
+      </c>
+      <c r="G35" s="2">
+        <v>11.366656938275099</v>
+      </c>
+      <c r="H35" s="2">
+        <v>60113</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9541</v>
+      </c>
+      <c r="J35" s="2">
+        <v>9.6484953337880324</v>
+      </c>
+      <c r="K35" s="2">
+        <v>31437</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2223</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4.2986537556224036</v>
+      </c>
+      <c r="N35" s="2">
+        <v>14329</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1945</v>
+      </c>
+      <c r="P35" s="2">
+        <v>8.2515934166284666</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>17108</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2078</v>
+      </c>
+      <c r="S35" s="2">
+        <v>7.3838080693154087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2">
+        <v>115769</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8591</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.5111319966621508</v>
+      </c>
+      <c r="E36" s="2">
+        <v>65792</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7880</v>
+      </c>
+      <c r="G36" s="2">
+        <v>7.2809362175203711</v>
+      </c>
+      <c r="H36" s="2">
+        <v>49977</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5491</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6.6790602096417242</v>
+      </c>
+      <c r="K36" s="2">
+        <v>50675</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2841</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3.408094073473158</v>
+      </c>
+      <c r="N36" s="2">
+        <v>29200</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2687</v>
+      </c>
+      <c r="P36" s="2">
+        <v>5.5939542823833124</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>21475</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1827</v>
+      </c>
+      <c r="S36" s="2">
+        <v>5.1717732147722488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2">
+        <v>117073</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9756</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.0658128587683722</v>
+      </c>
+      <c r="E37" s="2">
+        <v>46274</v>
+      </c>
+      <c r="F37" s="2">
+        <v>9848</v>
+      </c>
+      <c r="G37" s="2">
+        <v>12.93734308643651</v>
+      </c>
+      <c r="H37" s="2">
+        <v>70799</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8138</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6.9875456743825186</v>
+      </c>
+      <c r="K37" s="2">
+        <v>41183</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2677</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3.9515227717754988</v>
+      </c>
+      <c r="N37" s="2">
+        <v>16221</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="P37" s="2">
+        <v>9.3690699642794844</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>24962</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2475</v>
+      </c>
+      <c r="S37" s="2">
+        <v>6.0273987281336323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2">
+        <v>145365</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10827</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4.5277494018045132</v>
+      </c>
+      <c r="E38" s="2">
+        <v>24005</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5637</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14.2751415137044</v>
+      </c>
+      <c r="H38" s="2">
+        <v>121360</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9404</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4.7105449285002994</v>
+      </c>
+      <c r="K38" s="2">
+        <v>52580</v>
+      </c>
+      <c r="L38" s="2">
+        <v>3197</v>
+      </c>
+      <c r="M38" s="2">
+        <v>3.6962058683771488</v>
+      </c>
+      <c r="N38" s="2">
+        <v>9337</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1682</v>
+      </c>
+      <c r="P38" s="2">
+        <v>10.95097355912826</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>43243</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2834</v>
+      </c>
+      <c r="S38" s="2">
+        <v>3.9839889752875299</v>
       </c>
     </row>
   </sheetData>
